--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="controllers_latency_no_workload" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -17,35 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">controllers_latency_no_workload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">controllers_latency_no_workload AVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1_no_workload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2_no_workload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3_no_workload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1_no_workload AVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2_no_workload AVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3_no_workload AVG</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58,6 +29,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -117,12 +89,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -143,63 +111,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="E1:K2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:C"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.60714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="19.5918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-  </mergeCells>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
